--- a/crew_shift/2024-01「あさか丸」乗組員勤務表(1).xlsx
+++ b/crew_shift/2024-01「あさか丸」乗組員勤務表(1).xlsx
@@ -12,6 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="森本一弘" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="若宮保典" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="竹内　朗" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西田雅範" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="松尾功夫" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -25,7 +27,7 @@
     <numFmt numFmtId="165" formatCode="0&quot;日&quot;"/>
     <numFmt numFmtId="166" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -175,6 +177,9 @@
     <font>
       <color rgb="000000FF"/>
     </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -985,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,6 +1347,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1741,13 +1758,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
     <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
@@ -1819,7 +1836,11 @@
         </is>
       </c>
       <c r="C3" s="31" t="n"/>
-      <c r="D3" s="30" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>篠崎良三</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.8" customHeight="1" s="88">
       <c r="L4" s="29" t="n"/>
@@ -1981,19 +2002,35 @@
           <t>木</t>
         </is>
       </c>
-      <c r="C10" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="97" t="n"/>
+      <c r="C10" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D10" s="131" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E10" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F10" s="47" t="n"/>
-      <c r="G10" s="97" t="n"/>
+      <c r="G10" s="97" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
       <c r="H10" s="47" t="n"/>
-      <c r="I10" s="97" t="n"/>
+      <c r="I10" s="97" t="n">
+        <v>0.4652777777777778</v>
+      </c>
       <c r="J10" s="47" t="n"/>
-      <c r="K10" s="103" t="n"/>
+      <c r="K10" s="103" t="n">
+        <v>0.1319444444444444</v>
+      </c>
       <c r="L10" s="56" t="n"/>
       <c r="M10" s="104" t="n"/>
       <c r="N10" s="54" t="n"/>
@@ -2009,19 +2046,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C11" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="97" t="n"/>
+      <c r="C11" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D11" s="132" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E11" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F11" s="47" t="n"/>
-      <c r="G11" s="97" t="n"/>
+      <c r="G11" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H11" s="47" t="n"/>
-      <c r="I11" s="97" t="n"/>
+      <c r="I11" s="97" t="n">
+        <v>0.4131944444444444</v>
+      </c>
       <c r="J11" s="47" t="n"/>
-      <c r="K11" s="103" t="n"/>
+      <c r="K11" s="103" t="n">
+        <v>0.0798611111111111</v>
+      </c>
       <c r="L11" s="56" t="n"/>
       <c r="M11" s="104" t="n"/>
       <c r="N11" s="54" t="n"/>
@@ -2569,19 +2622,35 @@
           <t>木</t>
         </is>
       </c>
-      <c r="C31" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="97" t="n"/>
+      <c r="C31" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D31" s="131" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E31" s="97" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
       <c r="F31" s="47" t="n"/>
-      <c r="G31" s="97" t="n"/>
+      <c r="G31" s="97" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
       <c r="H31" s="47" t="n"/>
-      <c r="I31" s="97" t="n"/>
+      <c r="I31" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J31" s="47" t="n"/>
-      <c r="K31" s="98" t="n"/>
+      <c r="K31" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L31" s="49" t="n"/>
       <c r="M31" s="99" t="n"/>
       <c r="N31" s="49" t="n"/>
@@ -2597,21 +2666,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C32" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="97" t="n"/>
+      <c r="C32" s="130" t="inlineStr">
+        <is>
+          <t>当直</t>
+        </is>
+      </c>
+      <c r="D32" s="131" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E32" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F32" s="47" t="n"/>
       <c r="G32" s="97" t="n"/>
       <c r="H32" s="47" t="n"/>
-      <c r="I32" s="97" t="n"/>
+      <c r="I32" s="97" t="n">
+        <v>0.6458333333333334</v>
+      </c>
       <c r="J32" s="47" t="n"/>
-      <c r="K32" s="98" t="n"/>
+      <c r="K32" s="98" t="n">
+        <v>0.2291666666666667</v>
+      </c>
       <c r="L32" s="49" t="n"/>
-      <c r="M32" s="99" t="n"/>
+      <c r="M32" s="99" t="n">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="N32" s="49" t="n"/>
       <c r="O32" s="109" t="n"/>
       <c r="P32" s="106" t="n"/>
@@ -2625,21 +2708,35 @@
           <t>土</t>
         </is>
       </c>
-      <c r="C33" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D33" s="17" t="n"/>
+      <c r="C33" s="130" t="inlineStr">
+        <is>
+          <t>明け</t>
+        </is>
+      </c>
+      <c r="D33" s="132" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
       <c r="E33" s="97" t="n"/>
       <c r="F33" s="47" t="n"/>
-      <c r="G33" s="97" t="n"/>
+      <c r="G33" s="97" t="inlineStr">
+        <is>
+          <t>06:50</t>
+        </is>
+      </c>
       <c r="H33" s="47" t="n"/>
-      <c r="I33" s="97" t="n"/>
+      <c r="I33" s="97" t="n">
+        <v>0.2847222222222222</v>
+      </c>
       <c r="J33" s="47" t="n"/>
-      <c r="K33" s="98" t="n"/>
+      <c r="K33" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L33" s="49" t="n"/>
-      <c r="M33" s="99" t="n"/>
+      <c r="M33" s="99" t="n">
+        <v>0.2083333333333333</v>
+      </c>
       <c r="N33" s="49" t="n"/>
       <c r="O33" s="113" t="n"/>
       <c r="P33" s="106" t="n"/>
@@ -2681,19 +2778,35 @@
           <t>月</t>
         </is>
       </c>
-      <c r="C35" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="n"/>
-      <c r="E35" s="97" t="n"/>
+      <c r="C35" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D35" s="132" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E35" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F35" s="47" t="n"/>
-      <c r="G35" s="97" t="n"/>
+      <c r="G35" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H35" s="47" t="n"/>
-      <c r="I35" s="97" t="n"/>
+      <c r="I35" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J35" s="47" t="n"/>
-      <c r="K35" s="98" t="n"/>
+      <c r="K35" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L35" s="49" t="n"/>
       <c r="M35" s="99" t="n"/>
       <c r="N35" s="49" t="n"/>
@@ -2709,19 +2822,35 @@
           <t>火</t>
         </is>
       </c>
-      <c r="C36" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="97" t="n"/>
+      <c r="C36" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D36" s="131" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E36" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F36" s="47" t="n"/>
-      <c r="G36" s="97" t="n"/>
+      <c r="G36" s="97" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="H36" s="47" t="n"/>
-      <c r="I36" s="97" t="n"/>
+      <c r="I36" s="97" t="n">
+        <v>0.4097222222222222</v>
+      </c>
       <c r="J36" s="47" t="n"/>
-      <c r="K36" s="98" t="n"/>
+      <c r="K36" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L36" s="49" t="n"/>
       <c r="M36" s="99" t="n"/>
       <c r="N36" s="49" t="n"/>
@@ -3011,13 +3140,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
     <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
@@ -3089,7 +3218,11 @@
         </is>
       </c>
       <c r="C3" s="31" t="n"/>
-      <c r="D3" s="30" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>出口裕文</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.8" customHeight="1" s="88">
       <c r="L4" s="29" t="n"/>
@@ -3251,19 +3384,35 @@
           <t>木</t>
         </is>
       </c>
-      <c r="C10" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="97" t="n"/>
+      <c r="C10" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D10" s="131" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E10" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F10" s="47" t="n"/>
-      <c r="G10" s="97" t="n"/>
+      <c r="G10" s="97" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
       <c r="H10" s="47" t="n"/>
-      <c r="I10" s="97" t="n"/>
+      <c r="I10" s="97" t="n">
+        <v>0.4652777777777778</v>
+      </c>
       <c r="J10" s="47" t="n"/>
-      <c r="K10" s="103" t="n"/>
+      <c r="K10" s="103" t="n">
+        <v>0.1319444444444444</v>
+      </c>
       <c r="L10" s="56" t="n"/>
       <c r="M10" s="104" t="n"/>
       <c r="N10" s="54" t="n"/>
@@ -3279,19 +3428,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C11" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="97" t="n"/>
+      <c r="C11" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D11" s="132" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E11" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F11" s="47" t="n"/>
-      <c r="G11" s="97" t="n"/>
+      <c r="G11" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H11" s="47" t="n"/>
-      <c r="I11" s="97" t="n"/>
+      <c r="I11" s="97" t="n">
+        <v>0.4131944444444444</v>
+      </c>
       <c r="J11" s="47" t="n"/>
-      <c r="K11" s="103" t="n"/>
+      <c r="K11" s="103" t="n">
+        <v>0.0798611111111111</v>
+      </c>
       <c r="L11" s="56" t="n"/>
       <c r="M11" s="104" t="n"/>
       <c r="N11" s="54" t="n"/>
@@ -3839,19 +4004,35 @@
           <t>木</t>
         </is>
       </c>
-      <c r="C31" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="97" t="n"/>
+      <c r="C31" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D31" s="131" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E31" s="97" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
       <c r="F31" s="47" t="n"/>
-      <c r="G31" s="97" t="n"/>
+      <c r="G31" s="97" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
       <c r="H31" s="47" t="n"/>
-      <c r="I31" s="97" t="n"/>
+      <c r="I31" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J31" s="47" t="n"/>
-      <c r="K31" s="98" t="n"/>
+      <c r="K31" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L31" s="49" t="n"/>
       <c r="M31" s="99" t="n"/>
       <c r="N31" s="49" t="n"/>
@@ -3867,21 +4048,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C32" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="97" t="n"/>
+      <c r="C32" s="130" t="inlineStr">
+        <is>
+          <t>当直</t>
+        </is>
+      </c>
+      <c r="D32" s="131" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E32" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F32" s="47" t="n"/>
       <c r="G32" s="97" t="n"/>
       <c r="H32" s="47" t="n"/>
-      <c r="I32" s="97" t="n"/>
+      <c r="I32" s="97" t="n">
+        <v>0.6458333333333334</v>
+      </c>
       <c r="J32" s="47" t="n"/>
-      <c r="K32" s="98" t="n"/>
+      <c r="K32" s="98" t="n">
+        <v>0.2291666666666667</v>
+      </c>
       <c r="L32" s="49" t="n"/>
-      <c r="M32" s="99" t="n"/>
+      <c r="M32" s="99" t="n">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="N32" s="49" t="n"/>
       <c r="O32" s="109" t="n"/>
       <c r="P32" s="106" t="n"/>
@@ -3895,21 +4090,35 @@
           <t>土</t>
         </is>
       </c>
-      <c r="C33" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D33" s="17" t="n"/>
+      <c r="C33" s="130" t="inlineStr">
+        <is>
+          <t>明け</t>
+        </is>
+      </c>
+      <c r="D33" s="132" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
       <c r="E33" s="97" t="n"/>
       <c r="F33" s="47" t="n"/>
-      <c r="G33" s="97" t="n"/>
+      <c r="G33" s="97" t="inlineStr">
+        <is>
+          <t>06:50</t>
+        </is>
+      </c>
       <c r="H33" s="47" t="n"/>
-      <c r="I33" s="97" t="n"/>
+      <c r="I33" s="97" t="n">
+        <v>0.2847222222222222</v>
+      </c>
       <c r="J33" s="47" t="n"/>
-      <c r="K33" s="98" t="n"/>
+      <c r="K33" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L33" s="49" t="n"/>
-      <c r="M33" s="99" t="n"/>
+      <c r="M33" s="99" t="n">
+        <v>0.2083333333333333</v>
+      </c>
       <c r="N33" s="49" t="n"/>
       <c r="O33" s="113" t="n"/>
       <c r="P33" s="106" t="n"/>
@@ -3951,19 +4160,35 @@
           <t>月</t>
         </is>
       </c>
-      <c r="C35" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="n"/>
-      <c r="E35" s="97" t="n"/>
+      <c r="C35" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D35" s="132" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E35" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F35" s="47" t="n"/>
-      <c r="G35" s="97" t="n"/>
+      <c r="G35" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H35" s="47" t="n"/>
-      <c r="I35" s="97" t="n"/>
+      <c r="I35" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J35" s="47" t="n"/>
-      <c r="K35" s="98" t="n"/>
+      <c r="K35" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L35" s="49" t="n"/>
       <c r="M35" s="99" t="n"/>
       <c r="N35" s="49" t="n"/>
@@ -3979,19 +4204,35 @@
           <t>火</t>
         </is>
       </c>
-      <c r="C36" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="97" t="n"/>
+      <c r="C36" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D36" s="131" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E36" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F36" s="47" t="n"/>
-      <c r="G36" s="97" t="n"/>
+      <c r="G36" s="97" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="H36" s="47" t="n"/>
-      <c r="I36" s="97" t="n"/>
+      <c r="I36" s="97" t="n">
+        <v>0.4097222222222222</v>
+      </c>
       <c r="J36" s="47" t="n"/>
-      <c r="K36" s="98" t="n"/>
+      <c r="K36" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L36" s="49" t="n"/>
       <c r="M36" s="99" t="n"/>
       <c r="N36" s="49" t="n"/>
@@ -4281,13 +4522,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
     <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
@@ -4359,7 +4600,11 @@
         </is>
       </c>
       <c r="C3" s="31" t="n"/>
-      <c r="D3" s="30" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>増木照明</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.8" customHeight="1" s="88">
       <c r="L4" s="29" t="n"/>
@@ -5081,19 +5326,35 @@
           <t>水</t>
         </is>
       </c>
-      <c r="C30" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="97" t="n"/>
+      <c r="C30" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D30" s="131" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E30" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F30" s="47" t="n"/>
-      <c r="G30" s="97" t="n"/>
+      <c r="G30" s="97" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
       <c r="H30" s="47" t="n"/>
-      <c r="I30" s="97" t="n"/>
+      <c r="I30" s="97" t="n">
+        <v>0.4583333333333333</v>
+      </c>
       <c r="J30" s="47" t="n"/>
-      <c r="K30" s="98" t="n"/>
+      <c r="K30" s="98" t="n">
+        <v>0.125</v>
+      </c>
       <c r="L30" s="49" t="n"/>
       <c r="M30" s="99" t="n"/>
       <c r="N30" s="49" t="n"/>
@@ -5109,19 +5370,35 @@
           <t>木</t>
         </is>
       </c>
-      <c r="C31" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="97" t="n"/>
+      <c r="C31" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D31" s="131" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E31" s="97" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
       <c r="F31" s="47" t="n"/>
-      <c r="G31" s="97" t="n"/>
+      <c r="G31" s="97" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
       <c r="H31" s="47" t="n"/>
-      <c r="I31" s="97" t="n"/>
+      <c r="I31" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J31" s="47" t="n"/>
-      <c r="K31" s="98" t="n"/>
+      <c r="K31" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L31" s="49" t="n"/>
       <c r="M31" s="99" t="n"/>
       <c r="N31" s="49" t="n"/>
@@ -5170,7 +5447,7 @@
           <t>休日</t>
         </is>
       </c>
-      <c r="D33" s="17" t="n"/>
+      <c r="D33" s="132" t="n"/>
       <c r="E33" s="97" t="n"/>
       <c r="F33" s="47" t="n"/>
       <c r="G33" s="97" t="n"/>
@@ -5221,19 +5498,35 @@
           <t>月</t>
         </is>
       </c>
-      <c r="C35" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="n"/>
-      <c r="E35" s="97" t="n"/>
+      <c r="C35" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D35" s="132" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E35" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F35" s="47" t="n"/>
-      <c r="G35" s="97" t="n"/>
+      <c r="G35" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H35" s="47" t="n"/>
-      <c r="I35" s="97" t="n"/>
+      <c r="I35" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J35" s="47" t="n"/>
-      <c r="K35" s="98" t="n"/>
+      <c r="K35" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L35" s="49" t="n"/>
       <c r="M35" s="99" t="n"/>
       <c r="N35" s="49" t="n"/>
@@ -5277,19 +5570,35 @@
           <t>水</t>
         </is>
       </c>
-      <c r="C37" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n"/>
-      <c r="E37" s="97" t="n"/>
+      <c r="C37" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D37" s="133" t="inlineStr">
+        <is>
+          <t>甲板員</t>
+        </is>
+      </c>
+      <c r="E37" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F37" s="47" t="n"/>
-      <c r="G37" s="97" t="n"/>
+      <c r="G37" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H37" s="47" t="n"/>
-      <c r="I37" s="97" t="n"/>
+      <c r="I37" s="97" t="n">
+        <v>0.3715277777777778</v>
+      </c>
       <c r="J37" s="47" t="n"/>
-      <c r="K37" s="98" t="n"/>
+      <c r="K37" s="98" t="n">
+        <v>0.03819444444444445</v>
+      </c>
       <c r="L37" s="49" t="n"/>
       <c r="M37" s="99" t="n"/>
       <c r="N37" s="49" t="n"/>
@@ -5551,13 +5860,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
     <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
@@ -5629,7 +5938,11 @@
         </is>
       </c>
       <c r="C3" s="31" t="n"/>
-      <c r="D3" s="30" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>森本一弘</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.8" customHeight="1" s="88">
       <c r="L4" s="29" t="n"/>
@@ -5819,19 +6132,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C11" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="97" t="n"/>
+      <c r="C11" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D11" s="132" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E11" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F11" s="47" t="n"/>
-      <c r="G11" s="97" t="n"/>
+      <c r="G11" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H11" s="47" t="n"/>
-      <c r="I11" s="97" t="n"/>
+      <c r="I11" s="97" t="n">
+        <v>0.4131944444444444</v>
+      </c>
       <c r="J11" s="47" t="n"/>
-      <c r="K11" s="103" t="n"/>
+      <c r="K11" s="103" t="n">
+        <v>0.0798611111111111</v>
+      </c>
       <c r="L11" s="56" t="n"/>
       <c r="M11" s="104" t="n"/>
       <c r="N11" s="54" t="n"/>
@@ -6351,19 +6680,35 @@
           <t>水</t>
         </is>
       </c>
-      <c r="C30" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="97" t="n"/>
+      <c r="C30" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D30" s="131" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E30" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F30" s="47" t="n"/>
-      <c r="G30" s="97" t="n"/>
+      <c r="G30" s="97" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
       <c r="H30" s="47" t="n"/>
-      <c r="I30" s="97" t="n"/>
+      <c r="I30" s="97" t="n">
+        <v>0.4583333333333333</v>
+      </c>
       <c r="J30" s="47" t="n"/>
-      <c r="K30" s="98" t="n"/>
+      <c r="K30" s="98" t="n">
+        <v>0.125</v>
+      </c>
       <c r="L30" s="49" t="n"/>
       <c r="M30" s="99" t="n"/>
       <c r="N30" s="49" t="n"/>
@@ -6407,21 +6752,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C32" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="97" t="n"/>
+      <c r="C32" s="130" t="inlineStr">
+        <is>
+          <t>当直</t>
+        </is>
+      </c>
+      <c r="D32" s="131" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E32" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F32" s="47" t="n"/>
       <c r="G32" s="97" t="n"/>
       <c r="H32" s="47" t="n"/>
-      <c r="I32" s="97" t="n"/>
+      <c r="I32" s="97" t="n">
+        <v>0.6458333333333334</v>
+      </c>
       <c r="J32" s="47" t="n"/>
-      <c r="K32" s="98" t="n"/>
+      <c r="K32" s="98" t="n">
+        <v>0.2291666666666667</v>
+      </c>
       <c r="L32" s="49" t="n"/>
-      <c r="M32" s="99" t="n"/>
+      <c r="M32" s="99" t="n">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="N32" s="49" t="n"/>
       <c r="O32" s="109" t="n"/>
       <c r="P32" s="106" t="n"/>
@@ -6435,21 +6794,35 @@
           <t>土</t>
         </is>
       </c>
-      <c r="C33" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D33" s="17" t="n"/>
+      <c r="C33" s="130" t="inlineStr">
+        <is>
+          <t>明け</t>
+        </is>
+      </c>
+      <c r="D33" s="132" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
       <c r="E33" s="97" t="n"/>
       <c r="F33" s="47" t="n"/>
-      <c r="G33" s="97" t="n"/>
+      <c r="G33" s="97" t="inlineStr">
+        <is>
+          <t>06:50</t>
+        </is>
+      </c>
       <c r="H33" s="47" t="n"/>
-      <c r="I33" s="97" t="n"/>
+      <c r="I33" s="97" t="n">
+        <v>0.2847222222222222</v>
+      </c>
       <c r="J33" s="47" t="n"/>
-      <c r="K33" s="98" t="n"/>
+      <c r="K33" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L33" s="49" t="n"/>
-      <c r="M33" s="99" t="n"/>
+      <c r="M33" s="99" t="n">
+        <v>0.2083333333333333</v>
+      </c>
       <c r="N33" s="49" t="n"/>
       <c r="O33" s="113" t="n"/>
       <c r="P33" s="106" t="n"/>
@@ -6519,19 +6892,35 @@
           <t>火</t>
         </is>
       </c>
-      <c r="C36" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="97" t="n"/>
+      <c r="C36" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D36" s="131" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E36" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F36" s="47" t="n"/>
-      <c r="G36" s="97" t="n"/>
+      <c r="G36" s="97" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="H36" s="47" t="n"/>
-      <c r="I36" s="97" t="n"/>
+      <c r="I36" s="97" t="n">
+        <v>0.4097222222222222</v>
+      </c>
       <c r="J36" s="47" t="n"/>
-      <c r="K36" s="98" t="n"/>
+      <c r="K36" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L36" s="49" t="n"/>
       <c r="M36" s="99" t="n"/>
       <c r="N36" s="49" t="n"/>
@@ -6547,19 +6936,35 @@
           <t>水</t>
         </is>
       </c>
-      <c r="C37" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n"/>
-      <c r="E37" s="97" t="n"/>
+      <c r="C37" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D37" s="133" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E37" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F37" s="47" t="n"/>
-      <c r="G37" s="97" t="n"/>
+      <c r="G37" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H37" s="47" t="n"/>
-      <c r="I37" s="97" t="n"/>
+      <c r="I37" s="97" t="n">
+        <v>0.3715277777777778</v>
+      </c>
       <c r="J37" s="47" t="n"/>
-      <c r="K37" s="98" t="n"/>
+      <c r="K37" s="98" t="n">
+        <v>0.03819444444444445</v>
+      </c>
       <c r="L37" s="49" t="n"/>
       <c r="M37" s="99" t="n"/>
       <c r="N37" s="49" t="n"/>
@@ -6821,13 +7226,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
     <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
@@ -6899,7 +7304,11 @@
         </is>
       </c>
       <c r="C3" s="31" t="n"/>
-      <c r="D3" s="30" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>若宮保典</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.8" customHeight="1" s="88">
       <c r="L4" s="29" t="n"/>
@@ -7061,19 +7470,35 @@
           <t>木</t>
         </is>
       </c>
-      <c r="C10" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="97" t="n"/>
+      <c r="C10" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D10" s="131" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E10" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F10" s="47" t="n"/>
-      <c r="G10" s="97" t="n"/>
+      <c r="G10" s="97" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
       <c r="H10" s="47" t="n"/>
-      <c r="I10" s="97" t="n"/>
+      <c r="I10" s="97" t="n">
+        <v>0.4652777777777778</v>
+      </c>
       <c r="J10" s="47" t="n"/>
-      <c r="K10" s="103" t="n"/>
+      <c r="K10" s="103" t="n">
+        <v>0.1319444444444444</v>
+      </c>
       <c r="L10" s="56" t="n"/>
       <c r="M10" s="104" t="n"/>
       <c r="N10" s="54" t="n"/>
@@ -7089,19 +7514,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C11" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="97" t="n"/>
+      <c r="C11" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D11" s="132" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E11" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F11" s="47" t="n"/>
-      <c r="G11" s="97" t="n"/>
+      <c r="G11" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H11" s="47" t="n"/>
-      <c r="I11" s="97" t="n"/>
+      <c r="I11" s="97" t="n">
+        <v>0.4131944444444444</v>
+      </c>
       <c r="J11" s="47" t="n"/>
-      <c r="K11" s="103" t="n"/>
+      <c r="K11" s="103" t="n">
+        <v>0.0798611111111111</v>
+      </c>
       <c r="L11" s="56" t="n"/>
       <c r="M11" s="104" t="n"/>
       <c r="N11" s="54" t="n"/>
@@ -7649,19 +8090,35 @@
           <t>木</t>
         </is>
       </c>
-      <c r="C31" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="97" t="n"/>
+      <c r="C31" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D31" s="131" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E31" s="97" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
       <c r="F31" s="47" t="n"/>
-      <c r="G31" s="97" t="n"/>
+      <c r="G31" s="97" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
       <c r="H31" s="47" t="n"/>
-      <c r="I31" s="97" t="n"/>
+      <c r="I31" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J31" s="47" t="n"/>
-      <c r="K31" s="98" t="n"/>
+      <c r="K31" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L31" s="49" t="n"/>
       <c r="M31" s="99" t="n"/>
       <c r="N31" s="49" t="n"/>
@@ -7677,21 +8134,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C32" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="97" t="n"/>
+      <c r="C32" s="130" t="inlineStr">
+        <is>
+          <t>当直</t>
+        </is>
+      </c>
+      <c r="D32" s="131" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E32" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F32" s="47" t="n"/>
       <c r="G32" s="97" t="n"/>
       <c r="H32" s="47" t="n"/>
-      <c r="I32" s="97" t="n"/>
+      <c r="I32" s="97" t="n">
+        <v>0.6458333333333334</v>
+      </c>
       <c r="J32" s="47" t="n"/>
-      <c r="K32" s="98" t="n"/>
+      <c r="K32" s="98" t="n">
+        <v>0.2291666666666667</v>
+      </c>
       <c r="L32" s="49" t="n"/>
-      <c r="M32" s="99" t="n"/>
+      <c r="M32" s="99" t="n">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="N32" s="49" t="n"/>
       <c r="O32" s="109" t="n"/>
       <c r="P32" s="106" t="n"/>
@@ -7705,21 +8176,35 @@
           <t>土</t>
         </is>
       </c>
-      <c r="C33" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D33" s="17" t="n"/>
+      <c r="C33" s="130" t="inlineStr">
+        <is>
+          <t>明け</t>
+        </is>
+      </c>
+      <c r="D33" s="132" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
       <c r="E33" s="97" t="n"/>
       <c r="F33" s="47" t="n"/>
-      <c r="G33" s="97" t="n"/>
+      <c r="G33" s="97" t="inlineStr">
+        <is>
+          <t>06:50</t>
+        </is>
+      </c>
       <c r="H33" s="47" t="n"/>
-      <c r="I33" s="97" t="n"/>
+      <c r="I33" s="97" t="n">
+        <v>0.2847222222222222</v>
+      </c>
       <c r="J33" s="47" t="n"/>
-      <c r="K33" s="98" t="n"/>
+      <c r="K33" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L33" s="49" t="n"/>
-      <c r="M33" s="99" t="n"/>
+      <c r="M33" s="99" t="n">
+        <v>0.2083333333333333</v>
+      </c>
       <c r="N33" s="49" t="n"/>
       <c r="O33" s="113" t="n"/>
       <c r="P33" s="106" t="n"/>
@@ -7761,19 +8246,35 @@
           <t>月</t>
         </is>
       </c>
-      <c r="C35" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="n"/>
-      <c r="E35" s="97" t="n"/>
+      <c r="C35" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D35" s="132" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E35" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F35" s="47" t="n"/>
-      <c r="G35" s="97" t="n"/>
+      <c r="G35" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H35" s="47" t="n"/>
-      <c r="I35" s="97" t="n"/>
+      <c r="I35" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
       <c r="J35" s="47" t="n"/>
-      <c r="K35" s="98" t="n"/>
+      <c r="K35" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
       <c r="L35" s="49" t="n"/>
       <c r="M35" s="99" t="n"/>
       <c r="N35" s="49" t="n"/>
@@ -7789,19 +8290,35 @@
           <t>火</t>
         </is>
       </c>
-      <c r="C36" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="97" t="n"/>
+      <c r="C36" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D36" s="131" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E36" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F36" s="47" t="n"/>
-      <c r="G36" s="97" t="n"/>
+      <c r="G36" s="97" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="H36" s="47" t="n"/>
-      <c r="I36" s="97" t="n"/>
+      <c r="I36" s="97" t="n">
+        <v>0.4097222222222222</v>
+      </c>
       <c r="J36" s="47" t="n"/>
-      <c r="K36" s="98" t="n"/>
+      <c r="K36" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L36" s="49" t="n"/>
       <c r="M36" s="99" t="n"/>
       <c r="N36" s="49" t="n"/>
@@ -8091,13 +8608,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
     <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
@@ -8169,7 +8686,11 @@
         </is>
       </c>
       <c r="C3" s="31" t="n"/>
-      <c r="D3" s="30" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>竹内　朗</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.8" customHeight="1" s="88">
       <c r="L4" s="29" t="n"/>
@@ -8331,6 +8852,2714 @@
           <t>木</t>
         </is>
       </c>
+      <c r="C10" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D10" s="131" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E10" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F10" s="47" t="n"/>
+      <c r="G10" s="97" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="H10" s="47" t="n"/>
+      <c r="I10" s="97" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="J10" s="47" t="n"/>
+      <c r="K10" s="103" t="n">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="L10" s="56" t="n"/>
+      <c r="M10" s="104" t="n"/>
+      <c r="N10" s="54" t="n"/>
+      <c r="O10" s="108" t="n"/>
+      <c r="P10" s="106" t="n"/>
+    </row>
+    <row r="11" ht="21" customHeight="1" s="88">
+      <c r="A11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C11" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="97" t="n"/>
+      <c r="F11" s="47" t="n"/>
+      <c r="G11" s="97" t="n"/>
+      <c r="H11" s="47" t="n"/>
+      <c r="I11" s="97" t="n"/>
+      <c r="J11" s="47" t="n"/>
+      <c r="K11" s="103" t="n"/>
+      <c r="L11" s="56" t="n"/>
+      <c r="M11" s="104" t="n"/>
+      <c r="N11" s="54" t="n"/>
+      <c r="O11" s="109" t="n"/>
+      <c r="P11" s="106" t="n"/>
+    </row>
+    <row r="12" ht="21" customHeight="1" s="88">
+      <c r="A12" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C12" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="97" t="n"/>
+      <c r="F12" s="47" t="n"/>
+      <c r="G12" s="97" t="n"/>
+      <c r="H12" s="47" t="n"/>
+      <c r="I12" s="97" t="n"/>
+      <c r="J12" s="47" t="n"/>
+      <c r="K12" s="98" t="n"/>
+      <c r="L12" s="49" t="n"/>
+      <c r="M12" s="99" t="n"/>
+      <c r="N12" s="49" t="n"/>
+      <c r="O12" s="105" t="n"/>
+      <c r="P12" s="106" t="n"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" s="88">
+      <c r="A13" s="112" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C13" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="97" t="n"/>
+      <c r="F13" s="47" t="n"/>
+      <c r="G13" s="97" t="n"/>
+      <c r="H13" s="47" t="n"/>
+      <c r="I13" s="97" t="n"/>
+      <c r="J13" s="47" t="n"/>
+      <c r="K13" s="98" t="n"/>
+      <c r="L13" s="49" t="n"/>
+      <c r="M13" s="99" t="n"/>
+      <c r="N13" s="49" t="n"/>
+      <c r="O13" s="105" t="n"/>
+      <c r="P13" s="106" t="n"/>
+    </row>
+    <row r="14" ht="21" customHeight="1" s="88">
+      <c r="A14" s="112" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="95" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C14" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="97" t="n"/>
+      <c r="F14" s="47" t="n"/>
+      <c r="G14" s="97" t="n"/>
+      <c r="H14" s="47" t="n"/>
+      <c r="I14" s="97" t="n"/>
+      <c r="J14" s="47" t="n"/>
+      <c r="K14" s="98" t="n"/>
+      <c r="L14" s="49" t="n"/>
+      <c r="M14" s="99" t="n"/>
+      <c r="N14" s="49" t="n"/>
+      <c r="O14" s="109" t="n"/>
+      <c r="P14" s="106" t="n"/>
+    </row>
+    <row r="15" ht="21" customHeight="1" s="88">
+      <c r="A15" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C15" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="97" t="n"/>
+      <c r="F15" s="47" t="n"/>
+      <c r="G15" s="97" t="n"/>
+      <c r="H15" s="47" t="n"/>
+      <c r="I15" s="97" t="n"/>
+      <c r="J15" s="47" t="n"/>
+      <c r="K15" s="98" t="n"/>
+      <c r="L15" s="49" t="n"/>
+      <c r="M15" s="99" t="n"/>
+      <c r="N15" s="49" t="n"/>
+      <c r="O15" s="109" t="n"/>
+      <c r="P15" s="106" t="n"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" s="88">
+      <c r="A16" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C16" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="97" t="n"/>
+      <c r="F16" s="47" t="n"/>
+      <c r="G16" s="97" t="n"/>
+      <c r="H16" s="47" t="n"/>
+      <c r="I16" s="97" t="n"/>
+      <c r="J16" s="47" t="n"/>
+      <c r="K16" s="98" t="n"/>
+      <c r="L16" s="49" t="n"/>
+      <c r="M16" s="99" t="n"/>
+      <c r="N16" s="49" t="n"/>
+      <c r="O16" s="105" t="n"/>
+      <c r="P16" s="106" t="n"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" s="88">
+      <c r="A17" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="C17" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="97" t="n"/>
+      <c r="F17" s="47" t="n"/>
+      <c r="G17" s="97" t="n"/>
+      <c r="H17" s="47" t="n"/>
+      <c r="I17" s="97" t="n"/>
+      <c r="J17" s="47" t="n"/>
+      <c r="K17" s="98" t="n"/>
+      <c r="L17" s="49" t="n"/>
+      <c r="M17" s="99" t="n"/>
+      <c r="N17" s="49" t="n"/>
+      <c r="O17" s="105" t="n"/>
+      <c r="P17" s="106" t="n"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" s="88">
+      <c r="A18" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C18" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="97" t="n"/>
+      <c r="F18" s="47" t="n"/>
+      <c r="G18" s="97" t="n"/>
+      <c r="H18" s="47" t="n"/>
+      <c r="I18" s="97" t="n"/>
+      <c r="J18" s="47" t="n"/>
+      <c r="K18" s="98" t="n"/>
+      <c r="L18" s="49" t="n"/>
+      <c r="M18" s="99" t="n"/>
+      <c r="N18" s="49" t="n"/>
+      <c r="O18" s="113" t="n"/>
+      <c r="P18" s="106" t="n"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" s="88">
+      <c r="A19" s="110" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C19" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="97" t="n"/>
+      <c r="F19" s="47" t="n"/>
+      <c r="G19" s="97" t="n"/>
+      <c r="H19" s="47" t="n"/>
+      <c r="I19" s="97" t="n"/>
+      <c r="J19" s="47" t="n"/>
+      <c r="K19" s="98" t="n"/>
+      <c r="L19" s="49" t="n"/>
+      <c r="M19" s="99" t="n"/>
+      <c r="N19" s="49" t="n"/>
+      <c r="O19" s="114" t="n"/>
+      <c r="P19" s="106" t="n"/>
+    </row>
+    <row r="20" ht="21" customHeight="1" s="88">
+      <c r="A20" s="112" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C20" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="97" t="n"/>
+      <c r="F20" s="47" t="n"/>
+      <c r="G20" s="97" t="n"/>
+      <c r="H20" s="47" t="n"/>
+      <c r="I20" s="97" t="n"/>
+      <c r="J20" s="47" t="n"/>
+      <c r="K20" s="98" t="n"/>
+      <c r="L20" s="49" t="n"/>
+      <c r="M20" s="99" t="n"/>
+      <c r="N20" s="49" t="n"/>
+      <c r="O20" s="109" t="n"/>
+      <c r="P20" s="106" t="n"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" s="88">
+      <c r="A21" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C21" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="97" t="n"/>
+      <c r="F21" s="47" t="n"/>
+      <c r="G21" s="97" t="n"/>
+      <c r="H21" s="47" t="n"/>
+      <c r="I21" s="97" t="n"/>
+      <c r="J21" s="47" t="n"/>
+      <c r="K21" s="103" t="n"/>
+      <c r="L21" s="56" t="n"/>
+      <c r="M21" s="104" t="n"/>
+      <c r="N21" s="54" t="n"/>
+      <c r="O21" s="109" t="n"/>
+      <c r="P21" s="106" t="n"/>
+    </row>
+    <row r="22" ht="21" customHeight="1" s="88">
+      <c r="A22" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C22" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D22" s="23" t="n"/>
+      <c r="E22" s="97" t="n"/>
+      <c r="F22" s="47" t="n"/>
+      <c r="G22" s="97" t="n"/>
+      <c r="H22" s="47" t="n"/>
+      <c r="I22" s="97" t="n"/>
+      <c r="J22" s="47" t="n"/>
+      <c r="K22" s="103" t="n"/>
+      <c r="L22" s="56" t="n"/>
+      <c r="M22" s="104" t="n"/>
+      <c r="N22" s="54" t="n"/>
+      <c r="O22" s="109" t="n"/>
+      <c r="P22" s="106" t="n"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" s="88">
+      <c r="A23" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C23" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D23" s="23" t="n"/>
+      <c r="E23" s="97" t="n"/>
+      <c r="F23" s="47" t="n"/>
+      <c r="G23" s="97" t="n"/>
+      <c r="H23" s="47" t="n"/>
+      <c r="I23" s="97" t="n"/>
+      <c r="J23" s="47" t="n"/>
+      <c r="K23" s="98" t="n"/>
+      <c r="L23" s="49" t="n"/>
+      <c r="M23" s="99" t="n"/>
+      <c r="N23" s="49" t="n"/>
+      <c r="O23" s="115" t="n"/>
+      <c r="P23" s="106" t="n"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" s="88">
+      <c r="A24" s="20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="C24" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D24" s="23" t="n"/>
+      <c r="E24" s="97" t="n"/>
+      <c r="F24" s="47" t="n"/>
+      <c r="G24" s="97" t="n"/>
+      <c r="H24" s="47" t="n"/>
+      <c r="I24" s="97" t="n"/>
+      <c r="J24" s="47" t="n"/>
+      <c r="K24" s="98" t="n"/>
+      <c r="L24" s="49" t="n"/>
+      <c r="M24" s="99" t="n"/>
+      <c r="N24" s="49" t="n"/>
+      <c r="O24" s="115" t="n"/>
+      <c r="P24" s="106" t="n"/>
+    </row>
+    <row r="25" ht="21" customHeight="1" s="88">
+      <c r="A25" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C25" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="97" t="n"/>
+      <c r="F25" s="47" t="n"/>
+      <c r="G25" s="97" t="n"/>
+      <c r="H25" s="47" t="n"/>
+      <c r="I25" s="97" t="n"/>
+      <c r="J25" s="47" t="n"/>
+      <c r="K25" s="98" t="n"/>
+      <c r="L25" s="49" t="n"/>
+      <c r="M25" s="99" t="n"/>
+      <c r="N25" s="49" t="n"/>
+      <c r="O25" s="107" t="n"/>
+      <c r="P25" s="106" t="n"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" s="88">
+      <c r="A26" s="110" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C26" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="97" t="n"/>
+      <c r="F26" s="47" t="n"/>
+      <c r="G26" s="97" t="n"/>
+      <c r="H26" s="47" t="n"/>
+      <c r="I26" s="97" t="n"/>
+      <c r="J26" s="47" t="n"/>
+      <c r="K26" s="98" t="n"/>
+      <c r="L26" s="49" t="n"/>
+      <c r="M26" s="99" t="n"/>
+      <c r="N26" s="49" t="n"/>
+      <c r="O26" s="107" t="n"/>
+      <c r="P26" s="106" t="n"/>
+    </row>
+    <row r="27" ht="21" customHeight="1" s="88">
+      <c r="A27" s="112" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C27" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="97" t="n"/>
+      <c r="F27" s="47" t="n"/>
+      <c r="G27" s="97" t="n"/>
+      <c r="H27" s="47" t="n"/>
+      <c r="I27" s="97" t="n"/>
+      <c r="J27" s="47" t="n"/>
+      <c r="K27" s="98" t="n"/>
+      <c r="L27" s="49" t="n"/>
+      <c r="M27" s="99" t="n"/>
+      <c r="N27" s="49" t="n"/>
+      <c r="O27" s="116" t="n"/>
+      <c r="P27" s="106" t="n"/>
+    </row>
+    <row r="28" ht="21" customHeight="1" s="88">
+      <c r="A28" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C28" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="97" t="n"/>
+      <c r="F28" s="47" t="n"/>
+      <c r="G28" s="97" t="n"/>
+      <c r="H28" s="47" t="n"/>
+      <c r="I28" s="97" t="n"/>
+      <c r="J28" s="47" t="n"/>
+      <c r="K28" s="98" t="n"/>
+      <c r="L28" s="49" t="n"/>
+      <c r="M28" s="99" t="n"/>
+      <c r="N28" s="49" t="n"/>
+      <c r="O28" s="109" t="n"/>
+      <c r="P28" s="106" t="n"/>
+    </row>
+    <row r="29" ht="21" customHeight="1" s="88">
+      <c r="A29" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C29" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="97" t="n"/>
+      <c r="F29" s="47" t="n"/>
+      <c r="G29" s="97" t="n"/>
+      <c r="H29" s="47" t="n"/>
+      <c r="I29" s="97" t="n"/>
+      <c r="J29" s="47" t="n"/>
+      <c r="K29" s="98" t="n"/>
+      <c r="L29" s="49" t="n"/>
+      <c r="M29" s="99" t="n"/>
+      <c r="N29" s="49" t="n"/>
+      <c r="O29" s="117" t="n"/>
+      <c r="P29" s="106" t="n"/>
+    </row>
+    <row r="30" ht="21" customHeight="1" s="88">
+      <c r="A30" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C30" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D30" s="131" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E30" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F30" s="47" t="n"/>
+      <c r="G30" s="97" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="H30" s="47" t="n"/>
+      <c r="I30" s="97" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="J30" s="47" t="n"/>
+      <c r="K30" s="98" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L30" s="49" t="n"/>
+      <c r="M30" s="99" t="n"/>
+      <c r="N30" s="49" t="n"/>
+      <c r="O30" s="109" t="n"/>
+      <c r="P30" s="106" t="n"/>
+    </row>
+    <row r="31" ht="21" customHeight="1" s="88">
+      <c r="A31" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="C31" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D31" s="131" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E31" s="97" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="F31" s="47" t="n"/>
+      <c r="G31" s="97" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="H31" s="47" t="n"/>
+      <c r="I31" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="J31" s="47" t="n"/>
+      <c r="K31" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="L31" s="49" t="n"/>
+      <c r="M31" s="99" t="n"/>
+      <c r="N31" s="49" t="n"/>
+      <c r="O31" s="109" t="n"/>
+      <c r="P31" s="106" t="n"/>
+    </row>
+    <row r="32" ht="21" customHeight="1" s="88">
+      <c r="A32" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B32" s="11" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C32" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="97" t="n"/>
+      <c r="F32" s="47" t="n"/>
+      <c r="G32" s="97" t="n"/>
+      <c r="H32" s="47" t="n"/>
+      <c r="I32" s="97" t="n"/>
+      <c r="J32" s="47" t="n"/>
+      <c r="K32" s="98" t="n"/>
+      <c r="L32" s="49" t="n"/>
+      <c r="M32" s="99" t="n"/>
+      <c r="N32" s="49" t="n"/>
+      <c r="O32" s="109" t="n"/>
+      <c r="P32" s="106" t="n"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" s="88">
+      <c r="A33" s="110" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C33" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="97" t="n"/>
+      <c r="F33" s="47" t="n"/>
+      <c r="G33" s="97" t="n"/>
+      <c r="H33" s="47" t="n"/>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="47" t="n"/>
+      <c r="K33" s="98" t="n"/>
+      <c r="L33" s="49" t="n"/>
+      <c r="M33" s="99" t="n"/>
+      <c r="N33" s="49" t="n"/>
+      <c r="O33" s="113" t="n"/>
+      <c r="P33" s="106" t="n"/>
+    </row>
+    <row r="34" ht="21" customHeight="1" s="88">
+      <c r="A34" s="112" t="n">
+        <v>28</v>
+      </c>
+      <c r="B34" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C34" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D34" s="14" t="n"/>
+      <c r="E34" s="97" t="n"/>
+      <c r="F34" s="47" t="n"/>
+      <c r="G34" s="97" t="n"/>
+      <c r="H34" s="47" t="n"/>
+      <c r="I34" s="97" t="n"/>
+      <c r="J34" s="47" t="n"/>
+      <c r="K34" s="98" t="n"/>
+      <c r="L34" s="49" t="n"/>
+      <c r="M34" s="99" t="n"/>
+      <c r="N34" s="49" t="n"/>
+      <c r="O34" s="109" t="n"/>
+      <c r="P34" s="106" t="n"/>
+    </row>
+    <row r="35" ht="21" customHeight="1" s="88">
+      <c r="A35" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" s="11" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C35" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D35" s="132" t="inlineStr">
+        <is>
+          <t>一機士</t>
+        </is>
+      </c>
+      <c r="E35" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F35" s="47" t="n"/>
+      <c r="G35" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H35" s="47" t="n"/>
+      <c r="I35" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="J35" s="47" t="n"/>
+      <c r="K35" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="L35" s="49" t="n"/>
+      <c r="M35" s="99" t="n"/>
+      <c r="N35" s="49" t="n"/>
+      <c r="O35" s="114" t="n"/>
+      <c r="P35" s="106" t="n"/>
+    </row>
+    <row r="36" ht="21" customHeight="1" s="88">
+      <c r="A36" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B36" s="11" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C36" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="97" t="n"/>
+      <c r="F36" s="47" t="n"/>
+      <c r="G36" s="97" t="n"/>
+      <c r="H36" s="47" t="n"/>
+      <c r="I36" s="97" t="n"/>
+      <c r="J36" s="47" t="n"/>
+      <c r="K36" s="98" t="n"/>
+      <c r="L36" s="49" t="n"/>
+      <c r="M36" s="99" t="n"/>
+      <c r="N36" s="49" t="n"/>
+      <c r="O36" s="117" t="n"/>
+      <c r="P36" s="106" t="n"/>
+    </row>
+    <row r="37" ht="21" customHeight="1" s="88">
+      <c r="A37" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="B37" s="11" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C37" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D37" s="133" t="inlineStr">
+        <is>
+          <t>機関長</t>
+        </is>
+      </c>
+      <c r="E37" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F37" s="47" t="n"/>
+      <c r="G37" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H37" s="47" t="n"/>
+      <c r="I37" s="97" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="J37" s="47" t="n"/>
+      <c r="K37" s="98" t="n">
+        <v>0.03819444444444445</v>
+      </c>
+      <c r="L37" s="49" t="n"/>
+      <c r="M37" s="99" t="n"/>
+      <c r="N37" s="49" t="n"/>
+      <c r="O37" s="118" t="n"/>
+      <c r="P37" s="119" t="n"/>
+    </row>
+    <row r="38" ht="21" customHeight="1" s="88">
+      <c r="A38" s="78" t="inlineStr">
+        <is>
+          <t>合　　　計</t>
+        </is>
+      </c>
+      <c r="B38" s="120" t="n"/>
+      <c r="C38" s="121">
+        <f>COUNTIF(C7:C37,"日*")+COUNTIF(C7:C37,"当*")+COUNTIF(C7:C37,"明*")+COUNTIF(C7:C37,"休出")+COUNTIF(C7:C37,"臨出")</f>
+        <v/>
+      </c>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="79" t="n"/>
+      <c r="F38" s="79" t="n"/>
+      <c r="G38" s="79" t="n"/>
+      <c r="H38" s="5" t="n"/>
+      <c r="I38" s="122">
+        <f>SUM(I7:J37)</f>
+        <v/>
+      </c>
+      <c r="J38" s="123" t="n"/>
+      <c r="K38" s="124">
+        <f>SUM(K7:L37)</f>
+        <v/>
+      </c>
+      <c r="L38" s="125" t="n"/>
+      <c r="M38" s="126">
+        <f>SUM(M7:N37)</f>
+        <v/>
+      </c>
+      <c r="N38" s="125" t="n"/>
+      <c r="O38" s="127" t="n"/>
+      <c r="P38" s="128" t="n"/>
+    </row>
+    <row r="39" ht="19.5" customHeight="1" s="88">
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="H39" s="129" t="n"/>
+      <c r="I39" s="129" t="n"/>
+      <c r="J39" s="129" t="n"/>
+      <c r="K39" s="129" t="n"/>
+      <c r="L39" s="129" t="n"/>
+      <c r="M39" s="129" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="197">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
+    <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
+    <col width="6.9" customWidth="1" style="88" min="3" max="3"/>
+    <col width="6.9" customWidth="1" style="88" min="4" max="4"/>
+    <col width="5.4" customWidth="1" style="88" min="5" max="5"/>
+    <col width="5.4" customWidth="1" style="88" min="6" max="6"/>
+    <col width="5.4" customWidth="1" style="88" min="7" max="7"/>
+    <col width="5.4" customWidth="1" style="88" min="8" max="8"/>
+    <col width="4.4" customWidth="1" style="88" min="9" max="9"/>
+    <col width="4.4" customWidth="1" style="88" min="10" max="10"/>
+    <col width="5.4" customWidth="1" style="88" min="11" max="11"/>
+    <col width="5.4" customWidth="1" style="88" min="12" max="12"/>
+    <col width="5.4" customWidth="1" style="88" min="13" max="13"/>
+    <col width="5.4" customWidth="1" style="88" min="14" max="14"/>
+    <col width="5.2" customWidth="1" style="88" min="15" max="15"/>
+    <col width="5.2" customWidth="1" style="88" min="16" max="16"/>
+    <col width="8.799999999999999" customWidth="1" style="88" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="10.5" customHeight="1" s="88">
+      <c r="B1" s="38" t="n"/>
+      <c r="L1" s="37" t="inlineStr">
+        <is>
+          <t>企画管理部長</t>
+        </is>
+      </c>
+      <c r="M1" s="36" t="inlineStr">
+        <is>
+          <t>船舶部長</t>
+        </is>
+      </c>
+      <c r="N1" s="36" t="inlineStr">
+        <is>
+          <t>担当</t>
+        </is>
+      </c>
+      <c r="O1" s="36" t="inlineStr">
+        <is>
+          <t>担当</t>
+        </is>
+      </c>
+      <c r="P1" s="35" t="inlineStr">
+        <is>
+          <t>本人</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="35.25" customHeight="1" s="88">
+      <c r="B2" s="34" t="inlineStr">
+        <is>
+          <t>2024年01月 勤務表</t>
+        </is>
+      </c>
+      <c r="L2" s="32" t="n"/>
+      <c r="M2" s="32" t="n"/>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>高松</t>
+        </is>
+      </c>
+      <c r="O2" s="32" t="n"/>
+      <c r="P2" s="32" t="n"/>
+    </row>
+    <row r="3" ht="26.4" customHeight="1" s="88">
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>氏　名</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>西田雅範</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.8" customHeight="1" s="88">
+      <c r="L4" s="29" t="n"/>
+      <c r="M4" s="29" t="inlineStr">
+        <is>
+          <t>日本栄船株式会社</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="8.25" customHeight="1" s="88"/>
+    <row r="6" ht="21" customHeight="1" s="88">
+      <c r="A6" s="28" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="B6" s="44" t="inlineStr">
+        <is>
+          <t>曜日</t>
+        </is>
+      </c>
+      <c r="C6" s="27" t="inlineStr">
+        <is>
+          <t>勤務</t>
+        </is>
+      </c>
+      <c r="D6" s="39" t="inlineStr">
+        <is>
+          <t>職別</t>
+        </is>
+      </c>
+      <c r="E6" s="27" t="inlineStr">
+        <is>
+          <t>開局（出勤）</t>
+        </is>
+      </c>
+      <c r="F6" s="89" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
+        <is>
+          <t>閉局（退社）</t>
+        </is>
+      </c>
+      <c r="H6" s="90" t="n"/>
+      <c r="I6" s="27" t="inlineStr">
+        <is>
+          <t>労働時間</t>
+        </is>
+      </c>
+      <c r="J6" s="89" t="n"/>
+      <c r="K6" s="42" t="inlineStr">
+        <is>
+          <t>超勤（普通）</t>
+        </is>
+      </c>
+      <c r="L6" s="91" t="n"/>
+      <c r="M6" s="43" t="inlineStr">
+        <is>
+          <t>超勤（深夜）</t>
+        </is>
+      </c>
+      <c r="N6" s="91" t="n"/>
+      <c r="O6" s="92" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="P6" s="93" t="n"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" s="88">
+      <c r="A7" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="95" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C7" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="97" t="n"/>
+      <c r="F7" s="47" t="n"/>
+      <c r="G7" s="97" t="n"/>
+      <c r="H7" s="47" t="n"/>
+      <c r="I7" s="97" t="n"/>
+      <c r="J7" s="47" t="n"/>
+      <c r="K7" s="98" t="n"/>
+      <c r="L7" s="49" t="n"/>
+      <c r="M7" s="99" t="n"/>
+      <c r="N7" s="49" t="n"/>
+      <c r="O7" s="100" t="n"/>
+      <c r="P7" s="101" t="n"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" s="88">
+      <c r="A8" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C8" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="102" t="n"/>
+      <c r="F8" s="54" t="n"/>
+      <c r="G8" s="102" t="n"/>
+      <c r="H8" s="54" t="n"/>
+      <c r="I8" s="102" t="n"/>
+      <c r="J8" s="54" t="n"/>
+      <c r="K8" s="103" t="n"/>
+      <c r="L8" s="56" t="n"/>
+      <c r="M8" s="104" t="n"/>
+      <c r="N8" s="54" t="n"/>
+      <c r="O8" s="105" t="n"/>
+      <c r="P8" s="106" t="n"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" s="88">
+      <c r="A9" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C9" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="102" t="n"/>
+      <c r="F9" s="54" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="54" t="n"/>
+      <c r="I9" s="102" t="n"/>
+      <c r="J9" s="54" t="n"/>
+      <c r="K9" s="103" t="n"/>
+      <c r="L9" s="56" t="n"/>
+      <c r="M9" s="104" t="n"/>
+      <c r="N9" s="54" t="n"/>
+      <c r="O9" s="107" t="n"/>
+      <c r="P9" s="106" t="n"/>
+    </row>
+    <row r="10" ht="21" customHeight="1" s="88">
+      <c r="A10" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="C10" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D10" s="131" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E10" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F10" s="47" t="n"/>
+      <c r="G10" s="97" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="H10" s="47" t="n"/>
+      <c r="I10" s="97" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="J10" s="47" t="n"/>
+      <c r="K10" s="103" t="n">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="L10" s="56" t="n"/>
+      <c r="M10" s="104" t="n"/>
+      <c r="N10" s="54" t="n"/>
+      <c r="O10" s="108" t="n"/>
+      <c r="P10" s="106" t="n"/>
+    </row>
+    <row r="11" ht="21" customHeight="1" s="88">
+      <c r="A11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C11" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="97" t="n"/>
+      <c r="F11" s="47" t="n"/>
+      <c r="G11" s="97" t="n"/>
+      <c r="H11" s="47" t="n"/>
+      <c r="I11" s="97" t="n"/>
+      <c r="J11" s="47" t="n"/>
+      <c r="K11" s="103" t="n"/>
+      <c r="L11" s="56" t="n"/>
+      <c r="M11" s="104" t="n"/>
+      <c r="N11" s="54" t="n"/>
+      <c r="O11" s="109" t="n"/>
+      <c r="P11" s="106" t="n"/>
+    </row>
+    <row r="12" ht="21" customHeight="1" s="88">
+      <c r="A12" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C12" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="97" t="n"/>
+      <c r="F12" s="47" t="n"/>
+      <c r="G12" s="97" t="n"/>
+      <c r="H12" s="47" t="n"/>
+      <c r="I12" s="97" t="n"/>
+      <c r="J12" s="47" t="n"/>
+      <c r="K12" s="98" t="n"/>
+      <c r="L12" s="49" t="n"/>
+      <c r="M12" s="99" t="n"/>
+      <c r="N12" s="49" t="n"/>
+      <c r="O12" s="105" t="n"/>
+      <c r="P12" s="106" t="n"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" s="88">
+      <c r="A13" s="112" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C13" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="97" t="n"/>
+      <c r="F13" s="47" t="n"/>
+      <c r="G13" s="97" t="n"/>
+      <c r="H13" s="47" t="n"/>
+      <c r="I13" s="97" t="n"/>
+      <c r="J13" s="47" t="n"/>
+      <c r="K13" s="98" t="n"/>
+      <c r="L13" s="49" t="n"/>
+      <c r="M13" s="99" t="n"/>
+      <c r="N13" s="49" t="n"/>
+      <c r="O13" s="105" t="n"/>
+      <c r="P13" s="106" t="n"/>
+    </row>
+    <row r="14" ht="21" customHeight="1" s="88">
+      <c r="A14" s="112" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="95" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C14" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="97" t="n"/>
+      <c r="F14" s="47" t="n"/>
+      <c r="G14" s="97" t="n"/>
+      <c r="H14" s="47" t="n"/>
+      <c r="I14" s="97" t="n"/>
+      <c r="J14" s="47" t="n"/>
+      <c r="K14" s="98" t="n"/>
+      <c r="L14" s="49" t="n"/>
+      <c r="M14" s="99" t="n"/>
+      <c r="N14" s="49" t="n"/>
+      <c r="O14" s="109" t="n"/>
+      <c r="P14" s="106" t="n"/>
+    </row>
+    <row r="15" ht="21" customHeight="1" s="88">
+      <c r="A15" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C15" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="97" t="n"/>
+      <c r="F15" s="47" t="n"/>
+      <c r="G15" s="97" t="n"/>
+      <c r="H15" s="47" t="n"/>
+      <c r="I15" s="97" t="n"/>
+      <c r="J15" s="47" t="n"/>
+      <c r="K15" s="98" t="n"/>
+      <c r="L15" s="49" t="n"/>
+      <c r="M15" s="99" t="n"/>
+      <c r="N15" s="49" t="n"/>
+      <c r="O15" s="109" t="n"/>
+      <c r="P15" s="106" t="n"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" s="88">
+      <c r="A16" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C16" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="97" t="n"/>
+      <c r="F16" s="47" t="n"/>
+      <c r="G16" s="97" t="n"/>
+      <c r="H16" s="47" t="n"/>
+      <c r="I16" s="97" t="n"/>
+      <c r="J16" s="47" t="n"/>
+      <c r="K16" s="98" t="n"/>
+      <c r="L16" s="49" t="n"/>
+      <c r="M16" s="99" t="n"/>
+      <c r="N16" s="49" t="n"/>
+      <c r="O16" s="105" t="n"/>
+      <c r="P16" s="106" t="n"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" s="88">
+      <c r="A17" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="C17" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="97" t="n"/>
+      <c r="F17" s="47" t="n"/>
+      <c r="G17" s="97" t="n"/>
+      <c r="H17" s="47" t="n"/>
+      <c r="I17" s="97" t="n"/>
+      <c r="J17" s="47" t="n"/>
+      <c r="K17" s="98" t="n"/>
+      <c r="L17" s="49" t="n"/>
+      <c r="M17" s="99" t="n"/>
+      <c r="N17" s="49" t="n"/>
+      <c r="O17" s="105" t="n"/>
+      <c r="P17" s="106" t="n"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" s="88">
+      <c r="A18" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C18" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="97" t="n"/>
+      <c r="F18" s="47" t="n"/>
+      <c r="G18" s="97" t="n"/>
+      <c r="H18" s="47" t="n"/>
+      <c r="I18" s="97" t="n"/>
+      <c r="J18" s="47" t="n"/>
+      <c r="K18" s="98" t="n"/>
+      <c r="L18" s="49" t="n"/>
+      <c r="M18" s="99" t="n"/>
+      <c r="N18" s="49" t="n"/>
+      <c r="O18" s="113" t="n"/>
+      <c r="P18" s="106" t="n"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" s="88">
+      <c r="A19" s="110" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C19" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="97" t="n"/>
+      <c r="F19" s="47" t="n"/>
+      <c r="G19" s="97" t="n"/>
+      <c r="H19" s="47" t="n"/>
+      <c r="I19" s="97" t="n"/>
+      <c r="J19" s="47" t="n"/>
+      <c r="K19" s="98" t="n"/>
+      <c r="L19" s="49" t="n"/>
+      <c r="M19" s="99" t="n"/>
+      <c r="N19" s="49" t="n"/>
+      <c r="O19" s="114" t="n"/>
+      <c r="P19" s="106" t="n"/>
+    </row>
+    <row r="20" ht="21" customHeight="1" s="88">
+      <c r="A20" s="112" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C20" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="97" t="n"/>
+      <c r="F20" s="47" t="n"/>
+      <c r="G20" s="97" t="n"/>
+      <c r="H20" s="47" t="n"/>
+      <c r="I20" s="97" t="n"/>
+      <c r="J20" s="47" t="n"/>
+      <c r="K20" s="98" t="n"/>
+      <c r="L20" s="49" t="n"/>
+      <c r="M20" s="99" t="n"/>
+      <c r="N20" s="49" t="n"/>
+      <c r="O20" s="109" t="n"/>
+      <c r="P20" s="106" t="n"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" s="88">
+      <c r="A21" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C21" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="97" t="n"/>
+      <c r="F21" s="47" t="n"/>
+      <c r="G21" s="97" t="n"/>
+      <c r="H21" s="47" t="n"/>
+      <c r="I21" s="97" t="n"/>
+      <c r="J21" s="47" t="n"/>
+      <c r="K21" s="103" t="n"/>
+      <c r="L21" s="56" t="n"/>
+      <c r="M21" s="104" t="n"/>
+      <c r="N21" s="54" t="n"/>
+      <c r="O21" s="109" t="n"/>
+      <c r="P21" s="106" t="n"/>
+    </row>
+    <row r="22" ht="21" customHeight="1" s="88">
+      <c r="A22" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C22" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D22" s="23" t="n"/>
+      <c r="E22" s="97" t="n"/>
+      <c r="F22" s="47" t="n"/>
+      <c r="G22" s="97" t="n"/>
+      <c r="H22" s="47" t="n"/>
+      <c r="I22" s="97" t="n"/>
+      <c r="J22" s="47" t="n"/>
+      <c r="K22" s="103" t="n"/>
+      <c r="L22" s="56" t="n"/>
+      <c r="M22" s="104" t="n"/>
+      <c r="N22" s="54" t="n"/>
+      <c r="O22" s="109" t="n"/>
+      <c r="P22" s="106" t="n"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" s="88">
+      <c r="A23" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C23" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D23" s="23" t="n"/>
+      <c r="E23" s="97" t="n"/>
+      <c r="F23" s="47" t="n"/>
+      <c r="G23" s="97" t="n"/>
+      <c r="H23" s="47" t="n"/>
+      <c r="I23" s="97" t="n"/>
+      <c r="J23" s="47" t="n"/>
+      <c r="K23" s="98" t="n"/>
+      <c r="L23" s="49" t="n"/>
+      <c r="M23" s="99" t="n"/>
+      <c r="N23" s="49" t="n"/>
+      <c r="O23" s="115" t="n"/>
+      <c r="P23" s="106" t="n"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" s="88">
+      <c r="A24" s="20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="C24" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D24" s="23" t="n"/>
+      <c r="E24" s="97" t="n"/>
+      <c r="F24" s="47" t="n"/>
+      <c r="G24" s="97" t="n"/>
+      <c r="H24" s="47" t="n"/>
+      <c r="I24" s="97" t="n"/>
+      <c r="J24" s="47" t="n"/>
+      <c r="K24" s="98" t="n"/>
+      <c r="L24" s="49" t="n"/>
+      <c r="M24" s="99" t="n"/>
+      <c r="N24" s="49" t="n"/>
+      <c r="O24" s="115" t="n"/>
+      <c r="P24" s="106" t="n"/>
+    </row>
+    <row r="25" ht="21" customHeight="1" s="88">
+      <c r="A25" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C25" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="97" t="n"/>
+      <c r="F25" s="47" t="n"/>
+      <c r="G25" s="97" t="n"/>
+      <c r="H25" s="47" t="n"/>
+      <c r="I25" s="97" t="n"/>
+      <c r="J25" s="47" t="n"/>
+      <c r="K25" s="98" t="n"/>
+      <c r="L25" s="49" t="n"/>
+      <c r="M25" s="99" t="n"/>
+      <c r="N25" s="49" t="n"/>
+      <c r="O25" s="107" t="n"/>
+      <c r="P25" s="106" t="n"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" s="88">
+      <c r="A26" s="110" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C26" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="97" t="n"/>
+      <c r="F26" s="47" t="n"/>
+      <c r="G26" s="97" t="n"/>
+      <c r="H26" s="47" t="n"/>
+      <c r="I26" s="97" t="n"/>
+      <c r="J26" s="47" t="n"/>
+      <c r="K26" s="98" t="n"/>
+      <c r="L26" s="49" t="n"/>
+      <c r="M26" s="99" t="n"/>
+      <c r="N26" s="49" t="n"/>
+      <c r="O26" s="107" t="n"/>
+      <c r="P26" s="106" t="n"/>
+    </row>
+    <row r="27" ht="21" customHeight="1" s="88">
+      <c r="A27" s="112" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C27" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="97" t="n"/>
+      <c r="F27" s="47" t="n"/>
+      <c r="G27" s="97" t="n"/>
+      <c r="H27" s="47" t="n"/>
+      <c r="I27" s="97" t="n"/>
+      <c r="J27" s="47" t="n"/>
+      <c r="K27" s="98" t="n"/>
+      <c r="L27" s="49" t="n"/>
+      <c r="M27" s="99" t="n"/>
+      <c r="N27" s="49" t="n"/>
+      <c r="O27" s="116" t="n"/>
+      <c r="P27" s="106" t="n"/>
+    </row>
+    <row r="28" ht="21" customHeight="1" s="88">
+      <c r="A28" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C28" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="97" t="n"/>
+      <c r="F28" s="47" t="n"/>
+      <c r="G28" s="97" t="n"/>
+      <c r="H28" s="47" t="n"/>
+      <c r="I28" s="97" t="n"/>
+      <c r="J28" s="47" t="n"/>
+      <c r="K28" s="98" t="n"/>
+      <c r="L28" s="49" t="n"/>
+      <c r="M28" s="99" t="n"/>
+      <c r="N28" s="49" t="n"/>
+      <c r="O28" s="109" t="n"/>
+      <c r="P28" s="106" t="n"/>
+    </row>
+    <row r="29" ht="21" customHeight="1" s="88">
+      <c r="A29" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C29" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="97" t="n"/>
+      <c r="F29" s="47" t="n"/>
+      <c r="G29" s="97" t="n"/>
+      <c r="H29" s="47" t="n"/>
+      <c r="I29" s="97" t="n"/>
+      <c r="J29" s="47" t="n"/>
+      <c r="K29" s="98" t="n"/>
+      <c r="L29" s="49" t="n"/>
+      <c r="M29" s="99" t="n"/>
+      <c r="N29" s="49" t="n"/>
+      <c r="O29" s="117" t="n"/>
+      <c r="P29" s="106" t="n"/>
+    </row>
+    <row r="30" ht="21" customHeight="1" s="88">
+      <c r="A30" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C30" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D30" s="131" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E30" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F30" s="47" t="n"/>
+      <c r="G30" s="97" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="H30" s="47" t="n"/>
+      <c r="I30" s="97" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="J30" s="47" t="n"/>
+      <c r="K30" s="98" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L30" s="49" t="n"/>
+      <c r="M30" s="99" t="n"/>
+      <c r="N30" s="49" t="n"/>
+      <c r="O30" s="109" t="n"/>
+      <c r="P30" s="106" t="n"/>
+    </row>
+    <row r="31" ht="21" customHeight="1" s="88">
+      <c r="A31" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="C31" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D31" s="131" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E31" s="97" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="F31" s="47" t="n"/>
+      <c r="G31" s="97" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="H31" s="47" t="n"/>
+      <c r="I31" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="J31" s="47" t="n"/>
+      <c r="K31" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="L31" s="49" t="n"/>
+      <c r="M31" s="99" t="n"/>
+      <c r="N31" s="49" t="n"/>
+      <c r="O31" s="109" t="n"/>
+      <c r="P31" s="106" t="n"/>
+    </row>
+    <row r="32" ht="21" customHeight="1" s="88">
+      <c r="A32" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B32" s="11" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="C32" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="97" t="n"/>
+      <c r="F32" s="47" t="n"/>
+      <c r="G32" s="97" t="n"/>
+      <c r="H32" s="47" t="n"/>
+      <c r="I32" s="97" t="n"/>
+      <c r="J32" s="47" t="n"/>
+      <c r="K32" s="98" t="n"/>
+      <c r="L32" s="49" t="n"/>
+      <c r="M32" s="99" t="n"/>
+      <c r="N32" s="49" t="n"/>
+      <c r="O32" s="109" t="n"/>
+      <c r="P32" s="106" t="n"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" s="88">
+      <c r="A33" s="110" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" s="111" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="C33" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="97" t="n"/>
+      <c r="F33" s="47" t="n"/>
+      <c r="G33" s="97" t="n"/>
+      <c r="H33" s="47" t="n"/>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="47" t="n"/>
+      <c r="K33" s="98" t="n"/>
+      <c r="L33" s="49" t="n"/>
+      <c r="M33" s="99" t="n"/>
+      <c r="N33" s="49" t="n"/>
+      <c r="O33" s="113" t="n"/>
+      <c r="P33" s="106" t="n"/>
+    </row>
+    <row r="34" ht="21" customHeight="1" s="88">
+      <c r="A34" s="112" t="n">
+        <v>28</v>
+      </c>
+      <c r="B34" s="95" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C34" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D34" s="14" t="n"/>
+      <c r="E34" s="97" t="n"/>
+      <c r="F34" s="47" t="n"/>
+      <c r="G34" s="97" t="n"/>
+      <c r="H34" s="47" t="n"/>
+      <c r="I34" s="97" t="n"/>
+      <c r="J34" s="47" t="n"/>
+      <c r="K34" s="98" t="n"/>
+      <c r="L34" s="49" t="n"/>
+      <c r="M34" s="99" t="n"/>
+      <c r="N34" s="49" t="n"/>
+      <c r="O34" s="109" t="n"/>
+      <c r="P34" s="106" t="n"/>
+    </row>
+    <row r="35" ht="21" customHeight="1" s="88">
+      <c r="A35" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" s="11" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C35" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D35" s="132" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E35" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F35" s="47" t="n"/>
+      <c r="G35" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H35" s="47" t="n"/>
+      <c r="I35" s="97" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="J35" s="47" t="n"/>
+      <c r="K35" s="98" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="L35" s="49" t="n"/>
+      <c r="M35" s="99" t="n"/>
+      <c r="N35" s="49" t="n"/>
+      <c r="O35" s="114" t="n"/>
+      <c r="P35" s="106" t="n"/>
+    </row>
+    <row r="36" ht="21" customHeight="1" s="88">
+      <c r="A36" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B36" s="11" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C36" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="97" t="n"/>
+      <c r="F36" s="47" t="n"/>
+      <c r="G36" s="97" t="n"/>
+      <c r="H36" s="47" t="n"/>
+      <c r="I36" s="97" t="n"/>
+      <c r="J36" s="47" t="n"/>
+      <c r="K36" s="98" t="n"/>
+      <c r="L36" s="49" t="n"/>
+      <c r="M36" s="99" t="n"/>
+      <c r="N36" s="49" t="n"/>
+      <c r="O36" s="117" t="n"/>
+      <c r="P36" s="106" t="n"/>
+    </row>
+    <row r="37" ht="21" customHeight="1" s="88">
+      <c r="A37" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="B37" s="11" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C37" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D37" s="133" t="inlineStr">
+        <is>
+          <t>船長</t>
+        </is>
+      </c>
+      <c r="E37" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="F37" s="47" t="n"/>
+      <c r="G37" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H37" s="47" t="n"/>
+      <c r="I37" s="97" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="J37" s="47" t="n"/>
+      <c r="K37" s="98" t="n">
+        <v>0.03819444444444445</v>
+      </c>
+      <c r="L37" s="49" t="n"/>
+      <c r="M37" s="99" t="n"/>
+      <c r="N37" s="49" t="n"/>
+      <c r="O37" s="118" t="n"/>
+      <c r="P37" s="119" t="n"/>
+    </row>
+    <row r="38" ht="21" customHeight="1" s="88">
+      <c r="A38" s="78" t="inlineStr">
+        <is>
+          <t>合　　　計</t>
+        </is>
+      </c>
+      <c r="B38" s="120" t="n"/>
+      <c r="C38" s="121">
+        <f>COUNTIF(C7:C37,"日*")+COUNTIF(C7:C37,"当*")+COUNTIF(C7:C37,"明*")+COUNTIF(C7:C37,"休出")+COUNTIF(C7:C37,"臨出")</f>
+        <v/>
+      </c>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="79" t="n"/>
+      <c r="F38" s="79" t="n"/>
+      <c r="G38" s="79" t="n"/>
+      <c r="H38" s="5" t="n"/>
+      <c r="I38" s="122">
+        <f>SUM(I7:J37)</f>
+        <v/>
+      </c>
+      <c r="J38" s="123" t="n"/>
+      <c r="K38" s="124">
+        <f>SUM(K7:L37)</f>
+        <v/>
+      </c>
+      <c r="L38" s="125" t="n"/>
+      <c r="M38" s="126">
+        <f>SUM(M7:N37)</f>
+        <v/>
+      </c>
+      <c r="N38" s="125" t="n"/>
+      <c r="O38" s="127" t="n"/>
+      <c r="P38" s="128" t="n"/>
+    </row>
+    <row r="39" ht="19.5" customHeight="1" s="88">
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="H39" s="129" t="n"/>
+      <c r="I39" s="129" t="n"/>
+      <c r="J39" s="129" t="n"/>
+      <c r="K39" s="129" t="n"/>
+      <c r="L39" s="129" t="n"/>
+      <c r="M39" s="129" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="197">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="6.100000000000001" customWidth="1" style="88" min="1" max="1"/>
+    <col width="6.100000000000001" customWidth="1" style="88" min="2" max="2"/>
+    <col width="6.9" customWidth="1" style="88" min="3" max="3"/>
+    <col width="6.9" customWidth="1" style="88" min="4" max="4"/>
+    <col width="5.4" customWidth="1" style="88" min="5" max="5"/>
+    <col width="5.4" customWidth="1" style="88" min="6" max="6"/>
+    <col width="5.4" customWidth="1" style="88" min="7" max="7"/>
+    <col width="5.4" customWidth="1" style="88" min="8" max="8"/>
+    <col width="4.4" customWidth="1" style="88" min="9" max="9"/>
+    <col width="4.4" customWidth="1" style="88" min="10" max="10"/>
+    <col width="5.4" customWidth="1" style="88" min="11" max="11"/>
+    <col width="5.4" customWidth="1" style="88" min="12" max="12"/>
+    <col width="5.4" customWidth="1" style="88" min="13" max="13"/>
+    <col width="5.4" customWidth="1" style="88" min="14" max="14"/>
+    <col width="5.2" customWidth="1" style="88" min="15" max="15"/>
+    <col width="5.2" customWidth="1" style="88" min="16" max="16"/>
+    <col width="8.799999999999999" customWidth="1" style="88" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="10.5" customHeight="1" s="88">
+      <c r="B1" s="38" t="n"/>
+      <c r="L1" s="37" t="inlineStr">
+        <is>
+          <t>企画管理部長</t>
+        </is>
+      </c>
+      <c r="M1" s="36" t="inlineStr">
+        <is>
+          <t>船舶部長</t>
+        </is>
+      </c>
+      <c r="N1" s="36" t="inlineStr">
+        <is>
+          <t>担当</t>
+        </is>
+      </c>
+      <c r="O1" s="36" t="inlineStr">
+        <is>
+          <t>担当</t>
+        </is>
+      </c>
+      <c r="P1" s="35" t="inlineStr">
+        <is>
+          <t>本人</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="35.25" customHeight="1" s="88">
+      <c r="B2" s="34" t="inlineStr">
+        <is>
+          <t>2024年01月 勤務表</t>
+        </is>
+      </c>
+      <c r="L2" s="32" t="n"/>
+      <c r="M2" s="32" t="n"/>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>高松</t>
+        </is>
+      </c>
+      <c r="O2" s="32" t="n"/>
+      <c r="P2" s="32" t="n"/>
+    </row>
+    <row r="3" ht="26.4" customHeight="1" s="88">
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>氏　名</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="n"/>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>松尾功夫</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.8" customHeight="1" s="88">
+      <c r="L4" s="29" t="n"/>
+      <c r="M4" s="29" t="inlineStr">
+        <is>
+          <t>日本栄船株式会社</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="8.25" customHeight="1" s="88"/>
+    <row r="6" ht="21" customHeight="1" s="88">
+      <c r="A6" s="28" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="B6" s="44" t="inlineStr">
+        <is>
+          <t>曜日</t>
+        </is>
+      </c>
+      <c r="C6" s="27" t="inlineStr">
+        <is>
+          <t>勤務</t>
+        </is>
+      </c>
+      <c r="D6" s="39" t="inlineStr">
+        <is>
+          <t>職別</t>
+        </is>
+      </c>
+      <c r="E6" s="27" t="inlineStr">
+        <is>
+          <t>開局（出勤）</t>
+        </is>
+      </c>
+      <c r="F6" s="89" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
+        <is>
+          <t>閉局（退社）</t>
+        </is>
+      </c>
+      <c r="H6" s="90" t="n"/>
+      <c r="I6" s="27" t="inlineStr">
+        <is>
+          <t>労働時間</t>
+        </is>
+      </c>
+      <c r="J6" s="89" t="n"/>
+      <c r="K6" s="42" t="inlineStr">
+        <is>
+          <t>超勤（普通）</t>
+        </is>
+      </c>
+      <c r="L6" s="91" t="n"/>
+      <c r="M6" s="43" t="inlineStr">
+        <is>
+          <t>超勤（深夜）</t>
+        </is>
+      </c>
+      <c r="N6" s="91" t="n"/>
+      <c r="O6" s="92" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="P6" s="93" t="n"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" s="88">
+      <c r="A7" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="95" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="C7" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="97" t="n"/>
+      <c r="F7" s="47" t="n"/>
+      <c r="G7" s="97" t="n"/>
+      <c r="H7" s="47" t="n"/>
+      <c r="I7" s="97" t="n"/>
+      <c r="J7" s="47" t="n"/>
+      <c r="K7" s="98" t="n"/>
+      <c r="L7" s="49" t="n"/>
+      <c r="M7" s="99" t="n"/>
+      <c r="N7" s="49" t="n"/>
+      <c r="O7" s="100" t="n"/>
+      <c r="P7" s="101" t="n"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" s="88">
+      <c r="A8" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="C8" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="102" t="n"/>
+      <c r="F8" s="54" t="n"/>
+      <c r="G8" s="102" t="n"/>
+      <c r="H8" s="54" t="n"/>
+      <c r="I8" s="102" t="n"/>
+      <c r="J8" s="54" t="n"/>
+      <c r="K8" s="103" t="n"/>
+      <c r="L8" s="56" t="n"/>
+      <c r="M8" s="104" t="n"/>
+      <c r="N8" s="54" t="n"/>
+      <c r="O8" s="105" t="n"/>
+      <c r="P8" s="106" t="n"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" s="88">
+      <c r="A9" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="C9" s="96" t="inlineStr">
+        <is>
+          <t>休日</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="102" t="n"/>
+      <c r="F9" s="54" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="54" t="n"/>
+      <c r="I9" s="102" t="n"/>
+      <c r="J9" s="54" t="n"/>
+      <c r="K9" s="103" t="n"/>
+      <c r="L9" s="56" t="n"/>
+      <c r="M9" s="104" t="n"/>
+      <c r="N9" s="54" t="n"/>
+      <c r="O9" s="107" t="n"/>
+      <c r="P9" s="106" t="n"/>
+    </row>
+    <row r="10" ht="21" customHeight="1" s="88">
+      <c r="A10" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
       <c r="C10" s="96" t="inlineStr">
         <is>
           <t>休日</t>
@@ -8359,19 +11588,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C11" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="97" t="n"/>
+      <c r="C11" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D11" s="132" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E11" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F11" s="47" t="n"/>
-      <c r="G11" s="97" t="n"/>
+      <c r="G11" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H11" s="47" t="n"/>
-      <c r="I11" s="97" t="n"/>
+      <c r="I11" s="97" t="n">
+        <v>0.4131944444444444</v>
+      </c>
       <c r="J11" s="47" t="n"/>
-      <c r="K11" s="103" t="n"/>
+      <c r="K11" s="103" t="n">
+        <v>0.0798611111111111</v>
+      </c>
       <c r="L11" s="56" t="n"/>
       <c r="M11" s="104" t="n"/>
       <c r="N11" s="54" t="n"/>
@@ -8891,19 +12136,35 @@
           <t>水</t>
         </is>
       </c>
-      <c r="C30" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="97" t="n"/>
+      <c r="C30" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D30" s="131" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E30" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F30" s="47" t="n"/>
-      <c r="G30" s="97" t="n"/>
+      <c r="G30" s="97" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
       <c r="H30" s="47" t="n"/>
-      <c r="I30" s="97" t="n"/>
+      <c r="I30" s="97" t="n">
+        <v>0.4583333333333333</v>
+      </c>
       <c r="J30" s="47" t="n"/>
-      <c r="K30" s="98" t="n"/>
+      <c r="K30" s="98" t="n">
+        <v>0.125</v>
+      </c>
       <c r="L30" s="49" t="n"/>
       <c r="M30" s="99" t="n"/>
       <c r="N30" s="49" t="n"/>
@@ -8947,21 +12208,35 @@
           <t>金</t>
         </is>
       </c>
-      <c r="C32" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="97" t="n"/>
+      <c r="C32" s="130" t="inlineStr">
+        <is>
+          <t>当直</t>
+        </is>
+      </c>
+      <c r="D32" s="131" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E32" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F32" s="47" t="n"/>
       <c r="G32" s="97" t="n"/>
       <c r="H32" s="47" t="n"/>
-      <c r="I32" s="97" t="n"/>
+      <c r="I32" s="97" t="n">
+        <v>0.6458333333333334</v>
+      </c>
       <c r="J32" s="47" t="n"/>
-      <c r="K32" s="98" t="n"/>
+      <c r="K32" s="98" t="n">
+        <v>0.2291666666666667</v>
+      </c>
       <c r="L32" s="49" t="n"/>
-      <c r="M32" s="99" t="n"/>
+      <c r="M32" s="99" t="n">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="N32" s="49" t="n"/>
       <c r="O32" s="109" t="n"/>
       <c r="P32" s="106" t="n"/>
@@ -8975,21 +12250,35 @@
           <t>土</t>
         </is>
       </c>
-      <c r="C33" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D33" s="17" t="n"/>
+      <c r="C33" s="130" t="inlineStr">
+        <is>
+          <t>明け</t>
+        </is>
+      </c>
+      <c r="D33" s="132" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
       <c r="E33" s="97" t="n"/>
       <c r="F33" s="47" t="n"/>
-      <c r="G33" s="97" t="n"/>
+      <c r="G33" s="97" t="inlineStr">
+        <is>
+          <t>06:50</t>
+        </is>
+      </c>
       <c r="H33" s="47" t="n"/>
-      <c r="I33" s="97" t="n"/>
+      <c r="I33" s="97" t="n">
+        <v>0.2847222222222222</v>
+      </c>
       <c r="J33" s="47" t="n"/>
-      <c r="K33" s="98" t="n"/>
+      <c r="K33" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L33" s="49" t="n"/>
-      <c r="M33" s="99" t="n"/>
+      <c r="M33" s="99" t="n">
+        <v>0.2083333333333333</v>
+      </c>
       <c r="N33" s="49" t="n"/>
       <c r="O33" s="113" t="n"/>
       <c r="P33" s="106" t="n"/>
@@ -9059,19 +12348,35 @@
           <t>火</t>
         </is>
       </c>
-      <c r="C36" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="97" t="n"/>
+      <c r="C36" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D36" s="131" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E36" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F36" s="47" t="n"/>
-      <c r="G36" s="97" t="n"/>
+      <c r="G36" s="97" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="H36" s="47" t="n"/>
-      <c r="I36" s="97" t="n"/>
+      <c r="I36" s="97" t="n">
+        <v>0.4097222222222222</v>
+      </c>
       <c r="J36" s="47" t="n"/>
-      <c r="K36" s="98" t="n"/>
+      <c r="K36" s="98" t="n">
+        <v>0.0763888888888889</v>
+      </c>
       <c r="L36" s="49" t="n"/>
       <c r="M36" s="99" t="n"/>
       <c r="N36" s="49" t="n"/>
@@ -9087,19 +12392,35 @@
           <t>水</t>
         </is>
       </c>
-      <c r="C37" s="96" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n"/>
-      <c r="E37" s="97" t="n"/>
+      <c r="C37" s="130" t="inlineStr">
+        <is>
+          <t>日勤</t>
+        </is>
+      </c>
+      <c r="D37" s="133" t="inlineStr">
+        <is>
+          <t>一航士</t>
+        </is>
+      </c>
+      <c r="E37" s="97" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
       <c r="F37" s="47" t="n"/>
-      <c r="G37" s="97" t="n"/>
+      <c r="G37" s="97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H37" s="47" t="n"/>
-      <c r="I37" s="97" t="n"/>
+      <c r="I37" s="97" t="n">
+        <v>0.3715277777777778</v>
+      </c>
       <c r="J37" s="47" t="n"/>
-      <c r="K37" s="98" t="n"/>
+      <c r="K37" s="98" t="n">
+        <v>0.03819444444444445</v>
+      </c>
       <c r="L37" s="49" t="n"/>
       <c r="M37" s="99" t="n"/>
       <c r="N37" s="49" t="n"/>
